--- a/doc/cpu_op.xlsx
+++ b/doc/cpu_op.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView windowWidth="19140" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
   <si>
     <t>opcode(8)</t>
   </si>
@@ -301,20 +301,11 @@
     <t>00000012</t>
   </si>
   <si>
-    <t>shamt</t>
-  </si>
-  <si>
     <t>sll rs,rt,shamt</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">rt = rs &lt;&lt; shamt </t>
+      <t xml:space="preserve">rt = rs &lt;&lt; rt </t>
     </r>
     <r>
       <rPr>
@@ -334,13 +325,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">rt = rs &gt;&gt; shamt </t>
+      <t xml:space="preserve">rt = rs &gt;&gt; rt </t>
     </r>
     <r>
       <rPr>
@@ -837,8 +822,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,6 +843,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,6 +875,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -875,9 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,15 +919,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,37 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,7 +952,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,14 +966,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
@@ -1002,187 +987,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,6 +1233,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1260,8 +1260,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,8 +1269,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,6 +1286,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,183 +1330,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1883,8 +1868,10 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2237,20 +2224,20 @@
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:7">
       <c r="A18" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -2258,20 +2245,20 @@
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2282,7 +2269,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -2291,19 +2278,19 @@
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -2312,19 +2299,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -2333,19 +2320,19 @@
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -2354,19 +2341,19 @@
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -2375,19 +2362,19 @@
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -2396,19 +2383,19 @@
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:7">
       <c r="A26" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -2419,32 +2406,32 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2455,7 +2442,7 @@
     </row>
     <row r="29" ht="17.25" spans="1:7">
       <c r="A29" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -2468,15 +2455,15 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:7">
       <c r="A30" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -2489,15 +2476,15 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:7">
       <c r="A31" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
@@ -2510,34 +2497,34 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:7">
       <c r="A32" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="18"/>
       <c r="F32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2548,7 +2535,7 @@
     </row>
     <row r="34" ht="17.25" spans="1:7">
       <c r="A34" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -2559,32 +2546,32 @@
       <c r="D34" s="11"/>
       <c r="E34" s="18"/>
       <c r="F34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:7">
       <c r="A35" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:7">
       <c r="A36" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>45</v>
@@ -2593,15 +2580,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:7">
       <c r="A37" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
@@ -2612,13 +2599,13 @@
       <c r="D37" s="11"/>
       <c r="E37" s="18"/>
       <c r="F37" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" ht="17.25" spans="1:7">
       <c r="A38" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -2629,16 +2616,16 @@
       <c r="D38" s="11"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="17.25" spans="1:7">
       <c r="A39" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>45</v>
@@ -2646,13 +2633,13 @@
       <c r="D39" s="11"/>
       <c r="E39" s="18"/>
       <c r="F39" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" ht="17.25" spans="1:7">
       <c r="A40" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>45</v>
@@ -2661,15 +2648,15 @@
       <c r="D40" s="11"/>
       <c r="E40" s="18"/>
       <c r="F40" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:7">
       <c r="A41" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>45</v>
@@ -2678,33 +2665,33 @@
       <c r="D41" s="11"/>
       <c r="E41" s="18"/>
       <c r="F41" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="17.25" spans="1:7">
       <c r="A42" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="18"/>
       <c r="F42" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:7">
       <c r="A43" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>45</v>
@@ -2712,15 +2699,15 @@
       <c r="D43" s="11"/>
       <c r="E43" s="18"/>
       <c r="F43" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:7">
       <c r="A44" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>45</v>
@@ -2729,15 +2716,15 @@
       <c r="D44" s="11"/>
       <c r="E44" s="18"/>
       <c r="F44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:7">
       <c r="A45" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>45</v>
@@ -2746,10 +2733,10 @@
       <c r="D45" s="11"/>
       <c r="E45" s="18"/>
       <c r="F45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/doc/cpu_op.xlsx
+++ b/doc/cpu_op.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
   <si>
     <t>opcode(8)</t>
   </si>
@@ -301,7 +301,7 @@
     <t>00000012</t>
   </si>
   <si>
-    <t>sll rs,rt,shamt</t>
+    <t>sll rs,rt</t>
   </si>
   <si>
     <r>
@@ -321,7 +321,7 @@
     <t>00000013</t>
   </si>
   <si>
-    <t>slr rs,rt,shamt</t>
+    <t>slr rs,rt</t>
   </si>
   <si>
     <r>
@@ -534,243 +534,313 @@
     <t>00000025</t>
   </si>
   <si>
+    <r>
+      <t>imm(16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>lui rs, imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的的内存值，加载到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里面</t>
+    </r>
+  </si>
+  <si>
+    <t>系统指令</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>call rs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>call rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所代表的内存地址</t>
+    </r>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>calli imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所代表的内存地址</t>
+    </r>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>返回调用</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>push rs</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>pop rs</t>
+  </si>
+  <si>
+    <t>00000031</t>
+  </si>
+  <si>
+    <r>
+      <t>imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位）</t>
+    </r>
+  </si>
+  <si>
+    <t>int imm</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>停机</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>iret</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>lidt $label</t>
+  </si>
+  <si>
+    <t>加载中断描述符</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>lcr rs, num</t>
+  </si>
+  <si>
+    <r>
+      <t>加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cr0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cr1, cr2, cr3; cr0 = rs</t>
+    </r>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>sti</t>
+  </si>
+  <si>
+    <t>允许中断发生</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>禁止中断发生</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>xor rs,rt,rd</t>
+  </si>
+  <si>
+    <t>rd = rs ^ rt</t>
+  </si>
+  <si>
+    <t>00000039</t>
+  </si>
+  <si>
     <t>imm</t>
   </si>
   <si>
-    <t>lui rs, imm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>imm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的的内存值，加载到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里面</t>
-    </r>
-  </si>
-  <si>
-    <t>系统指令</t>
-  </si>
-  <si>
-    <t>00000026</t>
-  </si>
-  <si>
-    <t>call rs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>call rs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所代表的内存地址</t>
-    </r>
-  </si>
-  <si>
-    <t>00000027</t>
-  </si>
-  <si>
-    <t>calli imm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>imm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所代表的内存地址</t>
-    </r>
-  </si>
-  <si>
-    <t>00000028</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>返回调用</t>
-  </si>
-  <si>
-    <t>00000029</t>
-  </si>
-  <si>
-    <t>push rs</t>
-  </si>
-  <si>
-    <t>00000030</t>
-  </si>
-  <si>
-    <t>pop rs</t>
-  </si>
-  <si>
-    <t>00000031</t>
-  </si>
-  <si>
-    <t>int imm</t>
-  </si>
-  <si>
-    <t>00000032</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>停机</t>
-  </si>
-  <si>
-    <t>00000033</t>
-  </si>
-  <si>
-    <t>iret</t>
-  </si>
-  <si>
-    <t>00000034</t>
-  </si>
-  <si>
-    <t>lidt imm</t>
-  </si>
-  <si>
-    <t>加载中断描述符</t>
-  </si>
-  <si>
-    <t>00000035</t>
-  </si>
-  <si>
-    <t>lcr imm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cr0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cr1, cr2, cr3</t>
-    </r>
-  </si>
-  <si>
-    <t>00000036</t>
-  </si>
-  <si>
-    <t>sti</t>
-  </si>
-  <si>
-    <t>允许中断发生</t>
-  </si>
-  <si>
-    <t>00000037</t>
-  </si>
-  <si>
-    <t>cli</t>
-  </si>
-  <si>
-    <t>禁止中断发生</t>
+    <t>addi rs,imm</t>
+  </si>
+  <si>
+    <t>rs = rs + imm</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1042,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,12 +1112,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,141 +1402,141 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
@@ -1480,71 +1544,164 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" quotePrefix="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,881 +2023,926 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G17" sqref="G17"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.31333333333333" customWidth="true"/>
-    <col min="2" max="2" width="10.9533333333333" customWidth="true"/>
-    <col min="3" max="3" width="13.6733333333333" customWidth="true"/>
-    <col min="4" max="4" width="12.7066666666667" customWidth="true"/>
-    <col min="6" max="6" width="17.2" style="1" customWidth="true"/>
+    <col min="2" max="2" width="10.9533333333333" style="3" customWidth="true"/>
+    <col min="3" max="3" width="13.6733333333333" style="3" customWidth="true"/>
+    <col min="4" max="4" width="12.7066666666667" style="4" customWidth="true"/>
+    <col min="5" max="5" width="11.42" customWidth="true"/>
+    <col min="6" max="6" width="17.2" style="5" customWidth="true"/>
     <col min="7" max="7" width="35.1933333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="17.25" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:7">
-      <c r="A4" s="21" t="s">
+    <row r="4" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:7">
-      <c r="A5" s="21" t="s">
+    <row r="5" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="21" t="s">
+    <row r="6" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="21" t="s">
+    <row r="7" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:7">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="17.25" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:7">
-      <c r="A10" s="21" t="s">
+    <row r="10" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:7">
-      <c r="A11" s="21" t="s">
+    <row r="11" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="21" t="s">
+    <row r="12" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="2" customFormat="true" spans="1:7">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" ht="17.25" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:7">
-      <c r="A15" s="21" t="s">
+    <row r="15" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:7">
-      <c r="A16" s="21" t="s">
+    <row r="16" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:7">
-      <c r="A17" s="21" t="s">
+    <row r="17" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A17" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:7">
-      <c r="A18" s="21" t="s">
+    <row r="18" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="1" customFormat="true" spans="1:7">
+      <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="21" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" s="2" customFormat="true" spans="1:7">
+      <c r="A20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="21" t="s">
+    <row r="21" s="2" customFormat="true" spans="1:7">
+      <c r="A21" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21" t="s">
+    <row r="22" s="2" customFormat="true" spans="1:7">
+      <c r="A22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="21" t="s">
+    <row r="23" s="2" customFormat="true" spans="1:7">
+      <c r="A23" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21" t="s">
+    <row r="24" s="2" customFormat="true" spans="1:7">
+      <c r="A24" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
+    <row r="25" s="2" customFormat="true" spans="1:7">
+      <c r="A25" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="17" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:7">
-      <c r="A26" s="21" t="s">
+    <row r="26" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A26" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="17" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="21" t="s">
+    <row r="27" s="2" customFormat="true" spans="1:7">
+      <c r="A27" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="17" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9" t="s">
+    <row r="28" s="1" customFormat="true" spans="1:7">
+      <c r="A28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="17.25" spans="1:7">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A29" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:7">
-      <c r="A30" s="21" t="s">
+    <row r="30" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A30" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:7">
-      <c r="A31" s="21" t="s">
+    <row r="31" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A31" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:7">
-      <c r="A32" s="21" t="s">
+    <row r="32" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A32" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="17" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="9" t="s">
+    <row r="33" s="1" customFormat="true" spans="1:7">
+      <c r="A33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="17.25" spans="1:7">
-      <c r="A34" s="21" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A34" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:7">
-      <c r="A35" s="21" t="s">
+    <row r="35" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A35" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:7">
-      <c r="A36" s="21" t="s">
+    <row r="36" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A36" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:7">
-      <c r="A37" s="21" t="s">
+    <row r="37" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A37" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" ht="17.25" spans="1:7">
-      <c r="A38" s="21" t="s">
+      <c r="G37" s="45"/>
+    </row>
+    <row r="38" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A38" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" ht="17.25" spans="1:7">
-      <c r="A39" s="21" t="s">
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A39" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="21" t="s">
+      <c r="F39" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A40" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="39" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="21" t="s">
+      <c r="G40" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="12" t="s">
+    </row>
+    <row r="41" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A41" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" ht="17.25" spans="1:7">
-      <c r="A42" s="21" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20" t="s">
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A42" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="B42" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="46" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:7">
-      <c r="A43" s="21" t="s">
+      <c r="G42" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="12" t="s">
+    </row>
+    <row r="43" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A43" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="1:7">
-      <c r="A44" s="21" t="s">
+      <c r="E43" s="48"/>
+      <c r="F43" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="G43" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A44" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="1:7">
-      <c r="A45" s="21" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="G44" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A45" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>125</v>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A46" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A47" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A13:G13"/>
@@ -2767,13 +2969,14 @@
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B45:E45"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/cpu_op.xlsx
+++ b/doc/cpu_op.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19140" windowHeight="17505"/>
+    <workbookView windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
-  <si>
-    <t>opcode(8)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
+  <si>
+    <t>opcode(6)</t>
   </si>
   <si>
     <r>
@@ -119,10 +119,10 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -144,7 +144,7 @@
     <t>算术运算指令</t>
   </si>
   <si>
-    <t>00000000</t>
+    <t>000000</t>
   </si>
   <si>
     <t>rs</t>
@@ -182,7 +182,7 @@
     <t>rd = rs + rt</t>
   </si>
   <si>
-    <t>00000001</t>
+    <t>000001</t>
   </si>
   <si>
     <t>sub rs,rt,rd</t>
@@ -191,7 +191,7 @@
     <t>rd = rs - rt</t>
   </si>
   <si>
-    <t>00000002</t>
+    <t>000002</t>
   </si>
   <si>
     <t>mul rs,rt,rd</t>
@@ -200,7 +200,7 @@
     <t>rd = rs * rt</t>
   </si>
   <si>
-    <t>00000003</t>
+    <t>000003</t>
   </si>
   <si>
     <t>div rs,rt,rd</t>
@@ -209,7 +209,7 @@
     <t>rd = rs / rt</t>
   </si>
   <si>
-    <t>00000004</t>
+    <t>000004</t>
   </si>
   <si>
     <t>mod rs,rt,rd</t>
@@ -221,7 +221,7 @@
     <t>浮点数运算指令</t>
   </si>
   <si>
-    <t>00000005</t>
+    <t>000005</t>
   </si>
   <si>
     <r>
@@ -247,19 +247,19 @@
     <t>fadd rs,rt,rd</t>
   </si>
   <si>
-    <t>00000006</t>
+    <t>000006</t>
   </si>
   <si>
     <t>fsub rs,rt,rd</t>
   </si>
   <si>
-    <t>00000007</t>
+    <t>000007</t>
   </si>
   <si>
     <t>fmul rs,rt,rd</t>
   </si>
   <si>
-    <t>00000008</t>
+    <t>000008</t>
   </si>
   <si>
     <t>fdiv rs,rt,rd</t>
@@ -268,7 +268,7 @@
     <t>逻辑运算指令</t>
   </si>
   <si>
-    <t>00000009</t>
+    <t>000009</t>
   </si>
   <si>
     <t>and rs,rt,rd</t>
@@ -277,7 +277,7 @@
     <t>rd = rs &amp; rt</t>
   </si>
   <si>
-    <t>00000010</t>
+    <t>000010</t>
   </si>
   <si>
     <t>or rs,rt,rd</t>
@@ -286,7 +286,7 @@
     <t>rd = rs | rt</t>
   </si>
   <si>
-    <t>00000011</t>
+    <t>000011</t>
   </si>
   <si>
     <t>保留</t>
@@ -298,13 +298,19 @@
     <t>rt = !rs</t>
   </si>
   <si>
-    <t>00000012</t>
+    <t>000012</t>
   </si>
   <si>
     <t>sll rs,rt</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">rt = rs &lt;&lt; rt </t>
     </r>
     <r>
@@ -318,13 +324,19 @@
     </r>
   </si>
   <si>
-    <t>00000013</t>
+    <t>000013</t>
   </si>
   <si>
     <t>slr rs,rt</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">rt = rs &gt;&gt; rt </t>
     </r>
     <r>
@@ -341,82 +353,88 @@
     <t>比较转移指令</t>
   </si>
   <si>
-    <t>00000014</t>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>lt rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs &lt; lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>gt rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs &gt; lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>lte rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs &lt;= lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>gte rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs &gt;= lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>eq rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs == lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>neq rs,rt,label</t>
+  </si>
+  <si>
+    <t>if(rs != lt):jmp pc + sign extend label</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>jmp $label</t>
+  </si>
+  <si>
+    <t>jmp rs</t>
+  </si>
+  <si>
+    <t>000021</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>lt rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs &lt; lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000015</t>
-  </si>
-  <si>
-    <t>gt rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs &gt; lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000016</t>
-  </si>
-  <si>
-    <t>lte rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs &lt;= lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000017</t>
-  </si>
-  <si>
-    <t>gte rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs &gt;= lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000018</t>
-  </si>
-  <si>
-    <t>eq rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs == lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000019</t>
-  </si>
-  <si>
-    <t>neq rs,rt,label</t>
-  </si>
-  <si>
-    <t>if(rs != lt):jmp label</t>
-  </si>
-  <si>
-    <t>00000020</t>
-  </si>
-  <si>
-    <t>jmp rs</t>
-  </si>
-  <si>
-    <t>00000021</t>
-  </si>
-  <si>
     <t>jmpi label</t>
   </si>
   <si>
-    <t>jmp label</t>
+    <t>jmp pc + sign extend label</t>
   </si>
   <si>
     <t>数据传输指令</t>
   </si>
   <si>
-    <t>00000022</t>
+    <t>000022</t>
   </si>
   <si>
     <t>mov rs, rt</t>
@@ -425,7 +443,7 @@
     <t xml:space="preserve">rt = rs </t>
   </si>
   <si>
-    <t>00000023</t>
+    <t>000023</t>
   </si>
   <si>
     <t>load rs, rt</t>
@@ -438,7 +456,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>rt = *rs (rs</t>
+      <t>rt = memory[rs + + (sign-extend)immediate](rs</t>
     </r>
     <r>
       <rPr>
@@ -460,7 +478,7 @@
     </r>
   </si>
   <si>
-    <t>00000024</t>
+    <t>000024</t>
   </si>
   <si>
     <t>store rs, rt</t>
@@ -473,7 +491,7 @@
         <rFont val="DejaVu Sans Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>*rt = rs (</t>
+      <t xml:space="preserve">memory[rt + (sign-extend)immediate] &lt;- rs </t>
     </r>
     <r>
       <rPr>
@@ -482,16 +500,27 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rs</t>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>imm(16位)</t>
+  </si>
+  <si>
+    <t>lui rs, imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rt</t>
     </r>
     <r>
       <rPr>
@@ -500,16 +529,16 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>的值保存到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rt</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;-</t>
     </r>
     <r>
       <rPr>
@@ -518,24 +547,16 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>所指向的地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>00000025</t>
-  </si>
-  <si>
-    <r>
-      <t>imm(16</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>immediate*65536</t>
     </r>
     <r>
       <rPr>
@@ -544,22 +565,17 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>lui rs, imm</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> ；将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -567,13 +583,158 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>将地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
+      <t>位立即数放到目标寄存器高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+         位，目标寄存器的低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>系统指令</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>call rs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>call rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所代表的内存地址</t>
+    </r>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>calli imm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pc + sign extend label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所代表的内存地址</t>
+    </r>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>返回调用</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>push rs</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>pop rs</t>
+  </si>
+  <si>
+    <t>000031</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
       <t>imm</t>
@@ -585,16 +746,16 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>的的内存值，加载到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rs</t>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -603,19 +764,43 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>里面</t>
-    </r>
-  </si>
-  <si>
-    <t>系统指令</t>
-  </si>
-  <si>
-    <t>00000026</t>
-  </si>
-  <si>
-    <t>call rs</t>
-  </si>
-  <si>
+      <t>位）</t>
+    </r>
+  </si>
+  <si>
+    <t>int imm</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>停机</t>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>iret</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>lidt $label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">加载中断描述符 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -623,7 +808,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>call rs</t>
+      <t>pc</t>
     </r>
     <r>
       <rPr>
@@ -632,16 +817,8 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>所代表的内存地址</t>
-    </r>
-  </si>
-  <si>
-    <t>00000027</t>
-  </si>
-  <si>
-    <t>calli imm</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -649,7 +826,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>call</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -667,7 +844,7 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>imm</t>
+      <t>sign</t>
     </r>
     <r>
       <rPr>
@@ -676,36 +853,16 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>所代表的内存地址</t>
-    </r>
-  </si>
-  <si>
-    <t>00000028</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>返回调用</t>
-  </si>
-  <si>
-    <t>00000029</t>
-  </si>
-  <si>
-    <t>push rs</t>
-  </si>
-  <si>
-    <t>00000030</t>
-  </si>
-  <si>
-    <t>pop rs</t>
-  </si>
-  <si>
-    <t>00000031</t>
-  </si>
-  <si>
-    <r>
-      <t>imm</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extend</t>
     </r>
     <r>
       <rPr>
@@ -714,7 +871,7 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -723,8 +880,19 @@
         <rFont val="DejaVu Sans"/>
         <charset val="134"/>
       </rPr>
-      <t>8</t>
-    </r>
+      <t>label</t>
+    </r>
+  </si>
+  <si>
+    <t>000035</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>lcr rs, num</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -732,47 +900,6 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>位）</t>
-    </r>
-  </si>
-  <si>
-    <t>int imm</t>
-  </si>
-  <si>
-    <t>00000032</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>停机</t>
-  </si>
-  <si>
-    <t>00000033</t>
-  </si>
-  <si>
-    <t>iret</t>
-  </si>
-  <si>
-    <t>00000034</t>
-  </si>
-  <si>
-    <t>lidt $label</t>
-  </si>
-  <si>
-    <t>加载中断描述符</t>
-  </si>
-  <si>
-    <t>00000035</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>lcr rs, num</t>
-  </si>
-  <si>
-    <r>
       <t>加载</t>
     </r>
     <r>
@@ -804,7 +931,7 @@
     </r>
   </si>
   <si>
-    <t>00000036</t>
+    <t>000036</t>
   </si>
   <si>
     <t>sti</t>
@@ -813,7 +940,7 @@
     <t>允许中断发生</t>
   </si>
   <si>
-    <t>00000037</t>
+    <t>000037</t>
   </si>
   <si>
     <t>cli</t>
@@ -822,7 +949,7 @@
     <t>禁止中断发生</t>
   </si>
   <si>
-    <t>00000038</t>
+    <t>000038</t>
   </si>
   <si>
     <t>xor rs,rt,rd</t>
@@ -831,7 +958,7 @@
     <t>rd = rs ^ rt</t>
   </si>
   <si>
-    <t>00000039</t>
+    <t>000039</t>
   </si>
   <si>
     <t>imm</t>
@@ -841,6 +968,12 @@
   </si>
   <si>
     <t>rs = rs + imm</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>nop</t>
   </si>
 </sst>
 </file>
@@ -848,9 +981,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -901,15 +1034,91 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -930,68 +1139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,33 +1156,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,7 +1190,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1274,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,157 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,21 +1430,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1323,18 +1441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,6 +1466,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1369,28 +1495,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,142 +1532,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1544,11 +1677,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
@@ -1558,9 +1688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
@@ -1569,72 +1696,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,12 +1741,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1668,11 +1759,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
@@ -1680,9 +1768,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
@@ -1691,15 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" quotePrefix="true">
       <alignment vertical="center"/>
@@ -2023,10 +2099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
@@ -2034,915 +2110,934 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.31333333333333" customWidth="true"/>
-    <col min="2" max="2" width="10.9533333333333" style="3" customWidth="true"/>
-    <col min="3" max="3" width="13.6733333333333" style="3" customWidth="true"/>
-    <col min="4" max="4" width="12.7066666666667" style="4" customWidth="true"/>
-    <col min="5" max="5" width="11.42" customWidth="true"/>
-    <col min="6" max="6" width="17.2" style="5" customWidth="true"/>
-    <col min="7" max="7" width="35.1933333333333" customWidth="true"/>
+    <col min="2" max="2" width="9.76666666666667" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.5666666666667" style="2" customWidth="true"/>
+    <col min="4" max="4" width="11.2533333333333" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.94" customWidth="true"/>
+    <col min="6" max="6" width="17.2" style="3" customWidth="true"/>
+    <col min="7" max="7" width="67.1866666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A4" s="51" t="s">
+    <row r="4" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A5" s="51" t="s">
+    <row r="5" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A6" s="51" t="s">
+    <row r="6" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A7" s="51" t="s">
+    <row r="7" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A9" s="51" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A10" s="51" t="s">
+    <row r="10" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A11" s="51" t="s">
+    <row r="11" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A12" s="51" t="s">
+    <row r="12" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" spans="1:7">
-      <c r="A13" s="17" t="s">
+    <row r="13" s="1" customFormat="true" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A14" s="51" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A15" s="51" t="s">
+    <row r="15" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A16" s="51" t="s">
+    <row r="16" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A17" s="51" t="s">
+    <row r="17" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A18" s="51" t="s">
+    <row r="18" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" spans="1:7">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" s="2" customFormat="true" spans="1:7">
-      <c r="A20" s="51" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" s="1" customFormat="true" spans="1:7">
+      <c r="A20" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="39" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="true" spans="1:7">
-      <c r="A21" s="51" t="s">
+    <row r="21" s="1" customFormat="true" spans="1:7">
+      <c r="A21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="true" spans="1:7">
-      <c r="A22" s="51" t="s">
+    <row r="22" s="1" customFormat="true" spans="1:7">
+      <c r="A22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="39" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="true" spans="1:7">
-      <c r="A23" s="51" t="s">
+    <row r="23" s="1" customFormat="true" spans="1:7">
+      <c r="A23" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="true" spans="1:7">
-      <c r="A24" s="51" t="s">
+    <row r="24" s="1" customFormat="true" spans="1:7">
+      <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="39" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="true" spans="1:7">
-      <c r="A25" s="51" t="s">
+    <row r="25" s="1" customFormat="true" spans="1:7">
+      <c r="A25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="39" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A26" s="51" t="s">
+    <row r="26" s="1" customFormat="true" spans="1:7">
+      <c r="A26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="39" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="true" spans="1:7">
-      <c r="A27" s="51" t="s">
+      <c r="G26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="19" t="s">
+    </row>
+    <row r="27" s="1" customFormat="true" spans="1:7">
+      <c r="A27" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" spans="1:7">
+      <c r="A28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" s="1" customFormat="true" spans="1:7">
+      <c r="A29" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A30" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A31" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="34.5" spans="1:7">
+      <c r="A32" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" spans="1:7">
+      <c r="A33" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A34" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A35" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="true" spans="1:7">
-      <c r="A28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A29" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A36" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A37" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A38" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A39" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A41" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A42" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A43" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A44" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A45" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A46" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" spans="1:7">
+      <c r="A47" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="17.25" spans="1:7">
+      <c r="A48" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A30" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A31" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A32" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="true" spans="1:7">
-      <c r="A33" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A34" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A35" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A36" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A37" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A38" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A39" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A40" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A41" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A42" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A43" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A44" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A45" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A46" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="true" ht="17.25" spans="1:7">
-      <c r="A47" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>134</v>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A13:G13"/>
@@ -2962,7 +3057,7 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -2976,7 +3071,8 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B45:E45"/>
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
